--- a/VQC R work/Data Sheets/PFAS_1mg_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_1mg_Rdata_BW.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48632232-1EA6-42B2-9560-1606B966212D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643277D-0217-074A-9203-193AE6DB87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,90 +79,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,94 +419,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>3920</v>
+      </c>
+      <c r="C1">
+        <v>3921</v>
+      </c>
+      <c r="D1">
+        <v>3922</v>
+      </c>
+      <c r="E1">
+        <v>3923</v>
+      </c>
+      <c r="F1">
         <v>3932</v>
       </c>
-      <c r="C1" s="4">
+      <c r="G1">
         <v>3933</v>
       </c>
-      <c r="D1" s="4">
-        <v>3934</v>
-      </c>
-      <c r="E1" s="5">
-        <v>3935</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C2">
+        <v>39.1</v>
+      </c>
+      <c r="D2">
+        <v>37.4</v>
+      </c>
+      <c r="E2">
+        <v>37.1</v>
+      </c>
+      <c r="F2">
         <v>40.700000000000003</v>
       </c>
-      <c r="C2" s="2">
+      <c r="G2">
         <v>32.5</v>
       </c>
-      <c r="D2" s="2">
-        <v>31.7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>38.1</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C3">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D3">
+        <v>37.4</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
         <v>39.6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="G3">
         <v>31.9</v>
       </c>
-      <c r="D3" s="1">
-        <v>29.4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>37.200000000000003</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C4">
+        <v>40.6</v>
+      </c>
+      <c r="D4">
+        <v>37.9</v>
+      </c>
+      <c r="E4">
+        <v>37.6</v>
+      </c>
+      <c r="F4">
         <v>40.700000000000003</v>
       </c>
-      <c r="C4" s="1">
+      <c r="G4">
         <v>32.6</v>
       </c>
-      <c r="D4" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>38.200000000000003</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F5">
         <v>40.299999999999997</v>
       </c>
-      <c r="C5" s="1">
+      <c r="G5">
         <v>32.1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30.9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>38.200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_1mg_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_1mg_Rdata_BW.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643277D-0217-074A-9203-193AE6DB87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48632232-1EA6-42B2-9560-1606B966212D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -79,12 +74,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,124 +492,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>3920</v>
-      </c>
-      <c r="C1">
-        <v>3921</v>
-      </c>
-      <c r="D1">
-        <v>3922</v>
-      </c>
-      <c r="E1">
-        <v>3923</v>
-      </c>
-      <c r="F1">
+    <row r="1" spans="1:5">
+      <c r="B1" s="3">
         <v>3932</v>
       </c>
-      <c r="G1">
+      <c r="C1" s="4">
         <v>3933</v>
       </c>
+      <c r="D1" s="4">
+        <v>3934</v>
+      </c>
+      <c r="E1" s="5">
+        <v>3935</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="C2">
-        <v>39.1</v>
-      </c>
-      <c r="D2">
-        <v>37.4</v>
-      </c>
-      <c r="E2">
-        <v>37.1</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="2">
         <v>40.700000000000003</v>
       </c>
-      <c r="G2">
+      <c r="C2" s="2">
         <v>32.5</v>
       </c>
+      <c r="D2" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="C3">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="D3">
-        <v>37.4</v>
-      </c>
-      <c r="E3">
-        <v>37</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="1">
         <v>39.6</v>
       </c>
-      <c r="G3">
+      <c r="C3" s="1">
         <v>31.9</v>
       </c>
+      <c r="D3" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37.200000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="C4">
-        <v>40.6</v>
-      </c>
-      <c r="D4">
-        <v>37.9</v>
-      </c>
-      <c r="E4">
-        <v>37.6</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="G4">
+      <c r="C4" s="1">
         <v>32.6</v>
       </c>
+      <c r="D4" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>38.200000000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="D5">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E5">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="1">
         <v>40.299999999999997</v>
       </c>
-      <c r="G5">
+      <c r="C5" s="1">
         <v>32.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>38.200000000000003</v>
       </c>
     </row>
   </sheetData>
